--- a/data/hotels_by_city/Houston/Houston_shard_203.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_203.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d98955-Reviews-Econo_Lodge-Houston_Texas.html</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Econo-Lodge.h9840.Hotel-Information?chkin=7%2F15%2F2018&amp;chkout=7%2F16%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530842881835&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=7951b54e-eaea-426c-aee5-65050d324626&amp;mctc=9&amp;exp_dp=46.75&amp;exp_ts=1530842882372&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,403 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r414781424-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>98955</t>
+  </si>
+  <si>
+    <t>414781424</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>A place where Management does not care about the Customer and the premises</t>
+  </si>
+  <si>
+    <t>The building looks fine from the outside but as soon as you walk in the strong humidity odor suggests something is not right and the smell accompanies you on most floors. The hotel premises are NOT well maintained and issues reported via e-mail to Mr. Amith Patel/GM were left without any ack or response if nothing else as courtesy. Most likely the facility was recently refurbished but dust from the work done, paint drops on the furniture and the bathroom mirror with a big patch on a wall in the room I was staying were a sign of non-accurate cleaning confirmed by the visit of a cockroach and multiple insect bites result of an attack I suffered while working at the desk in the room. Definitely not a place to stay or return to so I moved to the Days Inn located a few hundred yards before that even if in the same price range is a MUCH better place where to stay. It is a pity that the "Quality" hotel is so poorly run since breakfast is great, staff is very courteous and helpful but all together not enough to turn things around.MoreShow less</t>
+  </si>
+  <si>
+    <t>The building looks fine from the outside but as soon as you walk in the strong humidity odor suggests something is not right and the smell accompanies you on most floors. The hotel premises are NOT well maintained and issues reported via e-mail to Mr. Amith Patel/GM were left without any ack or response if nothing else as courtesy. Most likely the facility was recently refurbished but dust from the work done, paint drops on the furniture and the bathroom mirror with a big patch on a wall in the room I was staying were a sign of non-accurate cleaning confirmed by the visit of a cockroach and multiple insect bites result of an attack I suffered while working at the desk in the room. Definitely not a place to stay or return to so I moved to the Days Inn located a few hundred yards before that even if in the same price range is a MUCH better place where to stay. It is a pity that the "Quality" hotel is so poorly run since breakfast is great, staff is very courteous and helpful but all together not enough to turn things around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r396366543-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396366543</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Cockroach Motel</t>
+  </si>
+  <si>
+    <t>This place is terrible.  We had two cockroaches in the room.  I refused to shower.  It smelt awful.  The service was also not great.  I had a drunk man sitting out front trying to talk to me.  There was a strip club in the same parking lot.  Could not wait to get out of there.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r368858188-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368858188</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>1 star experience! The smell of the elevator and rooms was disgusting. It looked like someone punched the mirror in the hallway as it was smashed. The adjourning door in my room was broken, as in the handle was dangling off. It looked like people permanently lived there as there was people just hanging around outside. There were boxes and junk in the hallway...this was THE WORST hotel I've ever been to DO NOT BOOK HERE!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r289047961-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289047961</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>I went for a funeral.... I thought I was going to die</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to change rooms 3 times because of mold &amp; mildew. Room 307 had the mold on the furniture. Room 508, as soon as you walked into the room the smell of mildew hit me in the face. Front desk agent Brenda lied to me about adding my Choice Privileges number to my reservation. I would not suggest anyone to stay at this hotel. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r273169298-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273169298</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>GM that runs it needs a new job</t>
+  </si>
+  <si>
+    <t>I went to Texas to visit family. We arrived there at around 4:30 am. The person working there was nowhere to be found. After he saw it he still proceeded in doing what he was soing, after a 12 hr drive I was not happy. He checked us in and didn't tell us anything.  A hello, welcome or anything would have been nice.  Didn't tell us where the best place to park, what time breakfast was or nothing. He said our room number and pointed to the elevator.  Thanks mister. Before even arriving to the room I could tell the place was run down. Filthy hallways, dirty elevator, no soda in vending machine...
+As I got to the room we were very tired , 5 am or so time wise. As we opened the door I began to inspect the room. The room looked like it was never dusted, everything I touched was dirty or dusted. The light in the bathroom didn't work, holes on the walls, and just dirty. We didn't mind , we just wanted to sleep. Upon getting ready to sleep I looked at the sheets and saw hairs.. I shook them off and we just slept. When waking up I looked closer and noticed that there wasn't even a fitted sheet and honestly it looked like they didn't even changed the sheets from the prior guests.
+We went to ask if we could just be moved...I went to Texas to visit family. We arrived there at around 4:30 am. The person working there was nowhere to be found. After he saw it he still proceeded in doing what he was soing, after a 12 hr drive I was not happy. He checked us in and didn't tell us anything.  A hello, welcome or anything would have been nice.  Didn't tell us where the best place to park, what time breakfast was or nothing. He said our room number and pointed to the elevator.  Thanks mister. Before even arriving to the room I could tell the place was run down. Filthy hallways, dirty elevator, no soda in vending machine...As I got to the room we were very tired , 5 am or so time wise. As we opened the door I began to inspect the room. The room looked like it was never dusted, everything I touched was dirty or dusted. The light in the bathroom didn't work, holes on the walls, and just dirty. We didn't mind , we just wanted to sleep. Upon getting ready to sleep I looked at the sheets and saw hairs.. I shook them off and we just slept. When waking up I looked closer and noticed that there wasn't even a fitted sheet and honestly it looked like they didn't even changed the sheets from the prior guests.We went to ask if we could just be moved to a clean room, my fiance spoke with the GM and he said that we were just not happy with his hotel and that he was not going to get us into a different room..to just leave....thank you quality inn and thank you choice.. I honestly don't know how they are a choice brand when their guest skills and satisfaction don't mean anything.  You have lost my business and hopefully people can read all this and not make the mistake we madeMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I went to Texas to visit family. We arrived there at around 4:30 am. The person working there was nowhere to be found. After he saw it he still proceeded in doing what he was soing, after a 12 hr drive I was not happy. He checked us in and didn't tell us anything.  A hello, welcome or anything would have been nice.  Didn't tell us where the best place to park, what time breakfast was or nothing. He said our room number and pointed to the elevator.  Thanks mister. Before even arriving to the room I could tell the place was run down. Filthy hallways, dirty elevator, no soda in vending machine...
+As I got to the room we were very tired , 5 am or so time wise. As we opened the door I began to inspect the room. The room looked like it was never dusted, everything I touched was dirty or dusted. The light in the bathroom didn't work, holes on the walls, and just dirty. We didn't mind , we just wanted to sleep. Upon getting ready to sleep I looked at the sheets and saw hairs.. I shook them off and we just slept. When waking up I looked closer and noticed that there wasn't even a fitted sheet and honestly it looked like they didn't even changed the sheets from the prior guests.
+We went to ask if we could just be moved...I went to Texas to visit family. We arrived there at around 4:30 am. The person working there was nowhere to be found. After he saw it he still proceeded in doing what he was soing, after a 12 hr drive I was not happy. He checked us in and didn't tell us anything.  A hello, welcome or anything would have been nice.  Didn't tell us where the best place to park, what time breakfast was or nothing. He said our room number and pointed to the elevator.  Thanks mister. Before even arriving to the room I could tell the place was run down. Filthy hallways, dirty elevator, no soda in vending machine...As I got to the room we were very tired , 5 am or so time wise. As we opened the door I began to inspect the room. The room looked like it was never dusted, everything I touched was dirty or dusted. The light in the bathroom didn't work, holes on the walls, and just dirty. We didn't mind , we just wanted to sleep. Upon getting ready to sleep I looked at the sheets and saw hairs.. I shook them off and we just slept. When waking up I looked closer and noticed that there wasn't even a fitted sheet and honestly it looked like they didn't even changed the sheets from the prior guests.We went to ask if we could just be moved to a clean room, my fiance spoke with the GM and he said that we were just not happy with his hotel and that he was not going to get us into a different room..to just leave....thank you quality inn and thank you choice.. I honestly don't know how they are a choice brand when their guest skills and satisfaction don't mean anything.  You have lost my business and hopefully people can read all this and not make the mistake we madeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r267250872-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267250872</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>My worst hotel stay</t>
+  </si>
+  <si>
+    <t>This hotel was smelly and unkept, the bed linen had stains and the toilet overflowed, the rain leaked through the ceiling,however when my husband voiced concerns about the issues he  was informed that we would be put on a do not rent list so I guess this is how management handles complaints, We have been put out of better places, their lost, #poor customer service</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r258013879-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258013879</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>I don't know what more I can say about this hotel other than do not stay here.  I read the reviews from other people before I went and they made it seem okay but for me I was not comfortable at this hotel at all.  I was there on a business trip and the first thing that came to mind when I pulled up to this place is "Is it safe?"  The lobby was clean when I walked in but there were people lounging in the lobby and the clerk did not even have a uniform on.  She had on a regular t-shirt and some jeans.  So unprofessional. Nice girl but needs to work on her work appearance.  So the lobby was clean but you could tell this place needed renovations.  Elevator doors needed to be painted.  Got to my room and my room appeared clean, but I just couldn't shake the unsafe feeling.  Went out later that night and there were now people hanging outside the hotel.  Not good!  I also think this place must offer a weekly rate because people really looked like they were living here.  I slept with my light on in this place.  Didn't walk around barefooted and noticed that when I turned the air off,cause I was freezing, I woke up to lady bugs in my room.  So now I know why they keep the air on.  What was suppose to be a 2...I don't know what more I can say about this hotel other than do not stay here.  I read the reviews from other people before I went and they made it seem okay but for me I was not comfortable at this hotel at all.  I was there on a business trip and the first thing that came to mind when I pulled up to this place is "Is it safe?"  The lobby was clean when I walked in but there were people lounging in the lobby and the clerk did not even have a uniform on.  She had on a regular t-shirt and some jeans.  So unprofessional. Nice girl but needs to work on her work appearance.  So the lobby was clean but you could tell this place needed renovations.  Elevator doors needed to be painted.  Got to my room and my room appeared clean, but I just couldn't shake the unsafe feeling.  Went out later that night and there were now people hanging outside the hotel.  Not good!  I also think this place must offer a weekly rate because people really looked like they were living here.  I slept with my light on in this place.  Didn't walk around barefooted and noticed that when I turned the air off,cause I was freezing, I woke up to lady bugs in my room.  So now I know why they keep the air on.  What was suppose to be a 2 day stay was quickly changed to a one night stay.  Do not stay at this hotel if you value your comfort.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I don't know what more I can say about this hotel other than do not stay here.  I read the reviews from other people before I went and they made it seem okay but for me I was not comfortable at this hotel at all.  I was there on a business trip and the first thing that came to mind when I pulled up to this place is "Is it safe?"  The lobby was clean when I walked in but there were people lounging in the lobby and the clerk did not even have a uniform on.  She had on a regular t-shirt and some jeans.  So unprofessional. Nice girl but needs to work on her work appearance.  So the lobby was clean but you could tell this place needed renovations.  Elevator doors needed to be painted.  Got to my room and my room appeared clean, but I just couldn't shake the unsafe feeling.  Went out later that night and there were now people hanging outside the hotel.  Not good!  I also think this place must offer a weekly rate because people really looked like they were living here.  I slept with my light on in this place.  Didn't walk around barefooted and noticed that when I turned the air off,cause I was freezing, I woke up to lady bugs in my room.  So now I know why they keep the air on.  What was suppose to be a 2...I don't know what more I can say about this hotel other than do not stay here.  I read the reviews from other people before I went and they made it seem okay but for me I was not comfortable at this hotel at all.  I was there on a business trip and the first thing that came to mind when I pulled up to this place is "Is it safe?"  The lobby was clean when I walked in but there were people lounging in the lobby and the clerk did not even have a uniform on.  She had on a regular t-shirt and some jeans.  So unprofessional. Nice girl but needs to work on her work appearance.  So the lobby was clean but you could tell this place needed renovations.  Elevator doors needed to be painted.  Got to my room and my room appeared clean, but I just couldn't shake the unsafe feeling.  Went out later that night and there were now people hanging outside the hotel.  Not good!  I also think this place must offer a weekly rate because people really looked like they were living here.  I slept with my light on in this place.  Didn't walk around barefooted and noticed that when I turned the air off,cause I was freezing, I woke up to lady bugs in my room.  So now I know why they keep the air on.  What was suppose to be a 2 day stay was quickly changed to a one night stay.  Do not stay at this hotel if you value your comfort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r256452451-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256452451</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Hated it!!!!</t>
+  </si>
+  <si>
+    <t>Management takes no pride in care in maintenance of the hotel. Screw holes in the walls all over where fixtures were removed. Some places they didn't even remove brackets from old futures. Just left them on the wall. Sloppy Dry wall patches as big as me. One patch looked like they covered the hole with duck tape then painted over it. Mildew on the tub and bed skit. Thick Layers of dust above door frames. Stains on carpet. Worst of all the doors to every room automatically slam shut unless you hold on to it. Every time the neighbors doors shut our walls shook. Slamming doors up and down the hall kept me up till 12am. This is a hotel for working men in the area. The parking lot was full of work trucks. Don't bring the family or wife here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management takes no pride in care in maintenance of the hotel. Screw holes in the walls all over where fixtures were removed. Some places they didn't even remove brackets from old futures. Just left them on the wall. Sloppy Dry wall patches as big as me. One patch looked like they covered the hole with duck tape then painted over it. Mildew on the tub and bed skit. Thick Layers of dust above door frames. Stains on carpet. Worst of all the doors to every room automatically slam shut unless you hold on to it. Every time the neighbors doors shut our walls shook. Slamming doors up and down the hall kept me up till 12am. This is a hotel for working men in the area. The parking lot was full of work trucks. Don't bring the family or wife here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r255619505-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255619505</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>spent alot of time here</t>
+  </si>
+  <si>
+    <t>I spent most weekends of January &amp; February 2014 at this hotel. was far enough from highway to not here the traffic. mostly had same room every weekend. parked my truck there never had a problem. walked every where. bus stop for downtown 2 minutes away. the hotel breakfast same as every body else in the chain. house keeping does not move anything to clean behind it. never had a problem from cabaret next store. a lot of nice restaurants in walking distance. had to change wifi every so often but that was easy enough. was on 2nd and 3rd floor non smoking. I usually left early on Mondays for work, but never seen problem in eating area. they do not have a large area to sit so time you go down can make a difference. I also drive a truck never was in the cabaret but from my lengthy experience at the  location and try to stay at choice hotels they are on par. I just wish house keeping would move couches and tables every once in a while to vacuum behind there. yes when I get stuck down in area I still stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I spent most weekends of January &amp; February 2014 at this hotel. was far enough from highway to not here the traffic. mostly had same room every weekend. parked my truck there never had a problem. walked every where. bus stop for downtown 2 minutes away. the hotel breakfast same as every body else in the chain. house keeping does not move anything to clean behind it. never had a problem from cabaret next store. a lot of nice restaurants in walking distance. had to change wifi every so often but that was easy enough. was on 2nd and 3rd floor non smoking. I usually left early on Mondays for work, but never seen problem in eating area. they do not have a large area to sit so time you go down can make a difference. I also drive a truck never was in the cabaret but from my lengthy experience at the  location and try to stay at choice hotels they are on par. I just wish house keeping would move couches and tables every once in a while to vacuum behind there. yes when I get stuck down in area I still stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r216686818-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216686818</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>This Motel Not Suitable for Families</t>
+  </si>
+  <si>
+    <t>We stayed at this location in order to complete a Choice Hotel promo.  HUGE MISTAKE!  This hotel is very run down, even in the midst of renovations.  The old furniture is on the guest floors outside the elevators, which is a safety hazard.  There are many truckers that stay at this hotel and they take over the small breakfast area.  Also, next door to this motel is a strip club, which is why this motel may be a hit with the truckers.  The motel pool is shared with another motel dive next door.   For men staying by themselves or those who don't care about their surroundings, this might be okay with them, but women traveling alone or families passing through the area should look elsewhere for better motel.  I won't even start to address the cleanliness of the guest rooms, but it be along the same tone as this post in its entirety.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this location in order to complete a Choice Hotel promo.  HUGE MISTAKE!  This hotel is very run down, even in the midst of renovations.  The old furniture is on the guest floors outside the elevators, which is a safety hazard.  There are many truckers that stay at this hotel and they take over the small breakfast area.  Also, next door to this motel is a strip club, which is why this motel may be a hit with the truckers.  The motel pool is shared with another motel dive next door.   For men staying by themselves or those who don't care about their surroundings, this might be okay with them, but women traveling alone or families passing through the area should look elsewhere for better motel.  I won't even start to address the cleanliness of the guest rooms, but it be along the same tone as this post in its entirety.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r204384972-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204384972</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>Needs a lot of improvements and CLEANING.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had to stay there because OTC in town medical center area sold out. Hotel is run down, a/c units were fire hazards (exposed wiring) furniture very worn and stained. Toilet seat did not fit toilet, shower had black mold in it.  One elevator operating for 6 floor hotel and it was not in good working order. Pillow case had mildew on it.  Not a good place to stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r190456092-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190456092</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>Very scary location near very scary strip club in very scary building. Have a four year old and was afraid for our safety. Moved to different hotel and quality inn refused to reimburse us. Will NEVER use quality inn again. Not safe for women or children!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r146657516-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146657516</t>
+  </si>
+  <si>
+    <t>12/02/2012</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r146404519-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146404519</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r144779578-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144779578</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r134221151-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134221151</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>ROACH MOTEL!!!</t>
+  </si>
+  <si>
+    <t>My husband and I had driven 12 hours with our two kids when we arrived at the Baymont. At first glance it seemed okay. When we arrived the night staff was helpful and pleasent. The nightmare started when we got in the hallway to our room. The hallway was unpleasantnly hot and humid with no a/c circulation. When we got in our room it was older, but seemed clean. The next morning we woke up and had plans to stay another night. I headed down the hallway for breakfast when I was greeted by a huge roach. It ran under the door to room 509. I went to the front desk and told the woman behind the desk what I saw. With no urgency or real concern she said "ok, I'll call maintence". I went upstairs and packed our bags as I told my husband what I had seen. Maintence showed up and looked around and left. Packed up and ready to go we were sent off once again by a roach at the end of the hallway. I told the front desk again and they had not a care in the world like it was routine for this complaint. The topper was us leaving and my son pointing out we were in the same parking lot as a cabaret... BEWARE!!!! It's a jungle here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I had driven 12 hours with our two kids when we arrived at the Baymont. At first glance it seemed okay. When we arrived the night staff was helpful and pleasent. The nightmare started when we got in the hallway to our room. The hallway was unpleasantnly hot and humid with no a/c circulation. When we got in our room it was older, but seemed clean. The next morning we woke up and had plans to stay another night. I headed down the hallway for breakfast when I was greeted by a huge roach. It ran under the door to room 509. I went to the front desk and told the woman behind the desk what I saw. With no urgency or real concern she said "ok, I'll call maintence". I went upstairs and packed our bags as I told my husband what I had seen. Maintence showed up and looked around and left. Packed up and ready to go we were sent off once again by a roach at the end of the hallway. I told the front desk again and they had not a care in the world like it was routine for this complaint. The topper was us leaving and my son pointing out we were in the same parking lot as a cabaret... BEWARE!!!! It's a jungle here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r129924505-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129924505</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Good at the right price</t>
+  </si>
+  <si>
+    <t>The hotel is pleasant enough and the staff are friendly but it's definitely running to a budget. The room was clean. The free Wi-Fi is good, the free breakfast is good if you're in early enough. Only one out of three ice vending machines was working. The lift made strange noises but was ok. Overall, I would be happy to stay here again and recommend it to others</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r116270974-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116270974</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>A Great Hotel</t>
+  </si>
+  <si>
+    <t>i stayed here recently since we had a meeting not too far away from the hotel and i decided to stay here. The hotel looks massive from the parking lot and is visible from the highway, a big plus for me since it takes away lost time that i spend driving in a u-turn around the frontage roads. The beds were well-made, very comfty and the smell of freshness just emitted from the room. The staff was very kind to meeting my every need, the stuff that you missed when packing they have it at the front desk. Breakfast was better than i expected, eggs, sausage, home made waffles that are in a shape of texas, yogurt, a large variety of cereal, fruit, and all the other things youd expect from a continental breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>i stayed here recently since we had a meeting not too far away from the hotel and i decided to stay here. The hotel looks massive from the parking lot and is visible from the highway, a big plus for me since it takes away lost time that i spend driving in a u-turn around the frontage roads. The beds were well-made, very comfty and the smell of freshness just emitted from the room. The staff was very kind to meeting my every need, the stuff that you missed when packing they have it at the front desk. Breakfast was better than i expected, eggs, sausage, home made waffles that are in a shape of texas, yogurt, a large variety of cereal, fruit, and all the other things youd expect from a continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r89046615-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>89046615</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>Nice hotel for price but check CC statement carefully.</t>
+  </si>
+  <si>
+    <t>Stayed here $69 for a one night stand after flooding in Houston caught me in East Houston in not the best of areas off I-10.Nice hotel small suite room comfy beds renovated nice rooms.Breakfast was outstanding with waffle iron that would make you homemade waffles in the shape of the state of Texas pretty cool the high point of my stay.Tried to slide a second charge in on my credit card 2 months after the stay hoping I would not catch it reported the charge "error" got a refund so be careful there.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r87496131-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>87496131</t>
+  </si>
+  <si>
+    <t>11/18/2010</t>
+  </si>
+  <si>
+    <t>The absolute best hotel in the area for value, friendly staff and plush bedding.</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 nights while on a business trip and I have to say that I will definetly return without a doubt.  The staff was that of a 5 star hotel when it comes to customer service, well trained and good people all around.  I was taken in the hotel shuttle to a few places while there with hardly any wait and very good drivers.  The rooms are very spacious and have a GREAT bed, very plush.  My second night here the management put on a reception for all guests in the lobby to enjoy dinner and snacks along with beverages.  The breakfast offered in the morning was very nice with both hot and cold options, ie Eggs, Waffle, Sausage and then the normal pastries and cereals.  If you are looking for a great hotel that you can relax and enjoy your stay while on business or leisure you will love this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 nights while on a business trip and I have to say that I will definetly return without a doubt.  The staff was that of a 5 star hotel when it comes to customer service, well trained and good people all around.  I was taken in the hotel shuttle to a few places while there with hardly any wait and very good drivers.  The rooms are very spacious and have a GREAT bed, very plush.  My second night here the management put on a reception for all guests in the lobby to enjoy dinner and snacks along with beverages.  The breakfast offered in the morning was very nice with both hot and cold options, ie Eggs, Waffle, Sausage and then the normal pastries and cereals.  If you are looking for a great hotel that you can relax and enjoy your stay while on business or leisure you will love this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r76898139-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>76898139</t>
+  </si>
+  <si>
+    <t>08/25/2010</t>
+  </si>
+  <si>
+    <t>Love the great services!</t>
+  </si>
+  <si>
+    <t>I stayed in Baymont Inn &amp; Suite during my residency interview trip and this is one of the best hotels in Houston. The front desk staff are very helpful when I asked for direction to my interview.  The complimentary breakfast was also amazing and the bed is so comfortable. I will definetly stay here again soon.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +938,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +970,1370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_203.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="260">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r594167395-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>98955</t>
+  </si>
+  <si>
+    <t>594167395</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Is a huge rip off</t>
+  </si>
+  <si>
+    <t>No breakfast, no laundry, no fitness room, and city closed pool on june 22. They are renovating the place say it will take 3 months. I don't think they could pull off that magic trick. I spent a lot of weekends here years ago and this was very disappointing. The gentleman at the desk says he didn't know the pool was closed.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r467117540-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467117540</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Poor nights sleep</t>
+  </si>
+  <si>
+    <t>From the moment you walk in you can tell the place is old and in need of renovation. Only one elevator works. Carpet on the upper floors is faded. Breakfast is typical hotel fare. Bed was very hard, I tossed and turned all night as I couldn't get comfortable. TV selection was good.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r414781424-Econo_Lodge-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>98955</t>
-  </si>
-  <si>
     <t>414781424</t>
   </si>
   <si>
@@ -219,6 +258,51 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r335482927-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335482927</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>I survived</t>
+  </si>
+  <si>
+    <t>This place is dirty, real dirty. The hallways stinks and same goes for the room as well. The room already had a cap of bud light, don't know who left that. Rooms are dirty and stinks. I had never seen a study chair so messed up in any places before. Didn't even feel like seating in the bathroom after looking at the seats. Horrible place. Was lucky, got out early and survived.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r291921633-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291921633</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Should I Stay or Should I Go.....</t>
+  </si>
+  <si>
+    <t>Quality Inn on there commercials ask the question should I stay or should I go? I would have gone, but I had booked an advance reservation that was non-refundable. In a search of the hotel after my admin had booked the hotel I was aware of the cabaret that was in the same parking lot. 
+When we checked in we were given the room key and when we went to the room, it looked that somebody was still in the room. There were dirty socks, a pack of cigarettes and some dirty cups. We immediately went down to the front desk and the front desk clerk Will assigned us another room.
+We stayed at this property for 4 days. The biggest problem that they have is that housekeeping is lacking. On the first and the last day when we came if from being out for the day found the cleaning rags that were used to clean the room. The parking lot also needs attention. 
+It is posted as you walk in that "To Excuse the mess they are remodeling " but being dirty is not. When you step into the elevator one of the things that I noticed was the button for the alarm bell is missing including the certificate that is supposed to be posted in every elevator (or the location where it can be found) in the state of Texas. As you step off the elevator, I stayed...Quality Inn on there commercials ask the question should I stay or should I go? I would have gone, but I had booked an advance reservation that was non-refundable. In a search of the hotel after my admin had booked the hotel I was aware of the cabaret that was in the same parking lot. When we checked in we were given the room key and when we went to the room, it looked that somebody was still in the room. There were dirty socks, a pack of cigarettes and some dirty cups. We immediately went down to the front desk and the front desk clerk Will assigned us another room.We stayed at this property for 4 days. The biggest problem that they have is that housekeeping is lacking. On the first and the last day when we came if from being out for the day found the cleaning rags that were used to clean the room. The parking lot also needs attention. It is posted as you walk in that "To Excuse the mess they are remodeling " but being dirty is not. When you step into the elevator one of the things that I noticed was the button for the alarm bell is missing including the certificate that is supposed to be posted in every elevator (or the location where it can be found) in the state of Texas. As you step off the elevator, I stayed on the 6th floor, you notice that the hallway is very warm and the carpet is in the need of cleaning. In the room itself, the overall appearance looked presentable until you really look. On the wall just past the desk, the wall has been partially patched. The wall behind the chair in the sitting area the paint is chipped. In the bathroom again the overall appearance looks good. But look at the spout at the tub and the tile is cracked and dirty. Again to reiterate, the property is under renovation but I want to make 2 points. (1) According to the reviews this property has been under renovation for more than a year and this is not a large hotel (100 rooms) and (2) You want to make sure that if you are lacking in one area such as a renovation you make sure that you excel in customer service and the cleanliness of the propertyThe hotel did offer a continental breakfast which I did not take advantage of for obvious reasons. Now in all fairness I spoke with the General Manager of this property and in talking with him he seemed unconcerned. As I spoke with him he put his head down and started doing something else. I am sure after this review I probably will be put on their no rent list however, I do not plan to stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn on there commercials ask the question should I stay or should I go? I would have gone, but I had booked an advance reservation that was non-refundable. In a search of the hotel after my admin had booked the hotel I was aware of the cabaret that was in the same parking lot. 
+When we checked in we were given the room key and when we went to the room, it looked that somebody was still in the room. There were dirty socks, a pack of cigarettes and some dirty cups. We immediately went down to the front desk and the front desk clerk Will assigned us another room.
+We stayed at this property for 4 days. The biggest problem that they have is that housekeeping is lacking. On the first and the last day when we came if from being out for the day found the cleaning rags that were used to clean the room. The parking lot also needs attention. 
+It is posted as you walk in that "To Excuse the mess they are remodeling " but being dirty is not. When you step into the elevator one of the things that I noticed was the button for the alarm bell is missing including the certificate that is supposed to be posted in every elevator (or the location where it can be found) in the state of Texas. As you step off the elevator, I stayed...Quality Inn on there commercials ask the question should I stay or should I go? I would have gone, but I had booked an advance reservation that was non-refundable. In a search of the hotel after my admin had booked the hotel I was aware of the cabaret that was in the same parking lot. When we checked in we were given the room key and when we went to the room, it looked that somebody was still in the room. There were dirty socks, a pack of cigarettes and some dirty cups. We immediately went down to the front desk and the front desk clerk Will assigned us another room.We stayed at this property for 4 days. The biggest problem that they have is that housekeeping is lacking. On the first and the last day when we came if from being out for the day found the cleaning rags that were used to clean the room. The parking lot also needs attention. It is posted as you walk in that "To Excuse the mess they are remodeling " but being dirty is not. When you step into the elevator one of the things that I noticed was the button for the alarm bell is missing including the certificate that is supposed to be posted in every elevator (or the location where it can be found) in the state of Texas. As you step off the elevator, I stayed on the 6th floor, you notice that the hallway is very warm and the carpet is in the need of cleaning. In the room itself, the overall appearance looked presentable until you really look. On the wall just past the desk, the wall has been partially patched. The wall behind the chair in the sitting area the paint is chipped. In the bathroom again the overall appearance looks good. But look at the spout at the tub and the tile is cracked and dirty. Again to reiterate, the property is under renovation but I want to make 2 points. (1) According to the reviews this property has been under renovation for more than a year and this is not a large hotel (100 rooms) and (2) You want to make sure that if you are lacking in one area such as a renovation you make sure that you excel in customer service and the cleanliness of the propertyThe hotel did offer a continental breakfast which I did not take advantage of for obvious reasons. Now in all fairness I spoke with the General Manager of this property and in talking with him he seemed unconcerned. As I spoke with him he put his head down and started doing something else. I am sure after this review I probably will be put on their no rent list however, I do not plan to stay at this property again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r289047961-Econo_Lodge-Houston_Texas.html</t>
   </si>
   <si>
@@ -232,12 +316,6 @@
   </si>
   <si>
     <t xml:space="preserve">I had to change rooms 3 times because of mold &amp; mildew. Room 307 had the mold on the furniture. Room 508, as soon as you walked into the room the smell of mildew hit me in the face. Front desk agent Brenda lied to me about adding my Choice Privileges number to my reservation. I would not suggest anyone to stay at this hotel. </t>
-  </si>
-  <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r273169298-Econo_Lodge-Houston_Texas.html</t>
@@ -283,6 +361,36 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r266293917-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266293917</t>
+  </si>
+  <si>
+    <t>04/17/2015</t>
+  </si>
+  <si>
+    <t>Staff was Great, Hotel was a little less than average</t>
+  </si>
+  <si>
+    <t>We were thankful to have a room since we did not book one in advance because learned at the last minute that our intended stay location was unavailable.  The staff was great and helpful.  The hotel seems to be under reconstruction and our room smelled of paint which caused me great concern due to toxicity.  The hallways and elevators smelled of smoke.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r265755343-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265755343</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Never staying here again</t>
+  </si>
+  <si>
+    <t>Here now, first night, but booked for 2 nights because my dad is a patient at MDA. The place is dirty, inside the hallways and outside the porch areas, trash laying around the ice machines, around the grounds, around the trash cans!  The shower sprays one speed which is slow! Not to mention the mole on the bathroom walls.. Would not leave any luggage or personal items here while away for the day.. Will definitely try to get my money back tomorrow when we head back to MDA. Came here to save money and rest. Not gonna happen.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r258013879-Econo_Lodge-Houston_Texas.html</t>
   </si>
   <si>
@@ -346,6 +454,56 @@
     <t>I spent most weekends of January &amp; February 2014 at this hotel. was far enough from highway to not here the traffic. mostly had same room every weekend. parked my truck there never had a problem. walked every where. bus stop for downtown 2 minutes away. the hotel breakfast same as every body else in the chain. house keeping does not move anything to clean behind it. never had a problem from cabaret next store. a lot of nice restaurants in walking distance. had to change wifi every so often but that was easy enough. was on 2nd and 3rd floor non smoking. I usually left early on Mondays for work, but never seen problem in eating area. they do not have a large area to sit so time you go down can make a difference. I also drive a truck never was in the cabaret but from my lengthy experience at the  location and try to stay at choice hotels they are on par. I just wish house keeping would move couches and tables every once in a while to vacuum behind there. yes when I get stuck down in area I still stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r247487472-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247487472</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Do NOT stay here!</t>
+  </si>
+  <si>
+    <t>We felt like we had to stay one night after we booked through the Internet so we did but left to go to another hotel after. I was afraid to stay here with my husband. The telephone has no cord to it! There is paint splatters everywhere, in the bathroom, on the lamp! It's very run down. They have a sign on all the floors inside the stairwell that asks people not to urinate on the walls! In the halls of each floor it is freezing! ( it is pretty cold here now)</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r235085228-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235085228</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Quality is a misnomer</t>
+  </si>
+  <si>
+    <t>In Houston for work.  Booked this hotel because it had smoking rooms and stayed 2 nights.  I am not a picky person when it comes to hotel rooms but this one got to me.  If you are assigned room 603 - run away as fast as you can.
+603 had about a three foot diameter round white plaster circle covering up who knows what.  There were stains on the carpet.  There were cigarette on the sofa.  (It was a smoking room).  The vent fan in the bathroom was covered in dust, grim, grit. Their signature shower head was a water pic  The rod to the toilet paper holder was missing.  The free wifi had an excellent signal but was so slow signal strength didn't matter.  Ended up using my phones hot spot.
+The best thing I can think of to say about room 603 is that after my shower the next morning the towels worked perfectly.
+I had to stay a second night and other nicer places were full so it was back here for night 2.  This time I got 602.  Marginally better but not by much.
+Only 1 elevator of 2 worked.  When I had to make a quick trip to the room about 6 pm the maids had the elevator blocked and were cleaning it because "the inspectors are coming."  If they (the maids) would have taken 5 or 10 minutes each day to clean the elevator...In Houston for work.  Booked this hotel because it had smoking rooms and stayed 2 nights.  I am not a picky person when it comes to hotel rooms but this one got to me.  If you are assigned room 603 - run away as fast as you can.603 had about a three foot diameter round white plaster circle covering up who knows what.  There were stains on the carpet.  There were cigarette on the sofa.  (It was a smoking room).  The vent fan in the bathroom was covered in dust, grim, grit. Their signature shower head was a water pic  The rod to the toilet paper holder was missing.  The free wifi had an excellent signal but was so slow signal strength didn't matter.  Ended up using my phones hot spot.The best thing I can think of to say about room 603 is that after my shower the next morning the towels worked perfectly.I had to stay a second night and other nicer places were full so it was back here for night 2.  This time I got 602.  Marginally better but not by much.Only 1 elevator of 2 worked.  When I had to make a quick trip to the room about 6 pm the maids had the elevator blocked and were cleaning it because "the inspectors are coming."  If they (the maids) would have taken 5 or 10 minutes each day to clean the elevator this could have been avoided.Impressions at first for this review was 1 star but the beds in both rooms were comfortable. The front desk staff were friendly, polite, helpful, and efficient.  Too bad the quality of the rooms doesn't meet the staff's enthusiasm.  The quality at this Quality Inn is a misnomer.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>In Houston for work.  Booked this hotel because it had smoking rooms and stayed 2 nights.  I am not a picky person when it comes to hotel rooms but this one got to me.  If you are assigned room 603 - run away as fast as you can.
+603 had about a three foot diameter round white plaster circle covering up who knows what.  There were stains on the carpet.  There were cigarette on the sofa.  (It was a smoking room).  The vent fan in the bathroom was covered in dust, grim, grit. Their signature shower head was a water pic  The rod to the toilet paper holder was missing.  The free wifi had an excellent signal but was so slow signal strength didn't matter.  Ended up using my phones hot spot.
+The best thing I can think of to say about room 603 is that after my shower the next morning the towels worked perfectly.
+I had to stay a second night and other nicer places were full so it was back here for night 2.  This time I got 602.  Marginally better but not by much.
+Only 1 elevator of 2 worked.  When I had to make a quick trip to the room about 6 pm the maids had the elevator blocked and were cleaning it because "the inspectors are coming."  If they (the maids) would have taken 5 or 10 minutes each day to clean the elevator...In Houston for work.  Booked this hotel because it had smoking rooms and stayed 2 nights.  I am not a picky person when it comes to hotel rooms but this one got to me.  If you are assigned room 603 - run away as fast as you can.603 had about a three foot diameter round white plaster circle covering up who knows what.  There were stains on the carpet.  There were cigarette on the sofa.  (It was a smoking room).  The vent fan in the bathroom was covered in dust, grim, grit. Their signature shower head was a water pic  The rod to the toilet paper holder was missing.  The free wifi had an excellent signal but was so slow signal strength didn't matter.  Ended up using my phones hot spot.The best thing I can think of to say about room 603 is that after my shower the next morning the towels worked perfectly.I had to stay a second night and other nicer places were full so it was back here for night 2.  This time I got 602.  Marginally better but not by much.Only 1 elevator of 2 worked.  When I had to make a quick trip to the room about 6 pm the maids had the elevator blocked and were cleaning it because "the inspectors are coming."  If they (the maids) would have taken 5 or 10 minutes each day to clean the elevator this could have been avoided.Impressions at first for this review was 1 star but the beds in both rooms were comfortable. The front desk staff were friendly, polite, helpful, and efficient.  Too bad the quality of the rooms doesn't meet the staff's enthusiasm.  The quality at this Quality Inn is a misnomer.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r216686818-Econo_Lodge-Houston_Texas.html</t>
   </si>
   <si>
@@ -394,6 +552,56 @@
     <t>Very scary location near very scary strip club in very scary building. Have a four year old and was afraid for our safety. Moved to different hotel and quality inn refused to reimburse us. Will NEVER use quality inn again. Not safe for women or children!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r162912533-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162912533</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Tonights stay was no longer about price</t>
+  </si>
+  <si>
+    <t>My co-worker and I had been on opposite ends of the Motel 6 next door and both found bugs in our bed when we finally turned in for the night. So after checking out there I was not wanting to go too far so I just walked across the parking lots and checked in at the Quality Inn.
+This place past my basic walk through and I did get a good nights sleep. The front desk was pleasant both check in and check out. 
+Did find two minor issues. First one of the wall lights didn’t work … because the outlet it is supposed to plug into is being used by the microwave and fridge. (This looks like a ‘set-up’ issue that should have been taken care of when the appliances were added.) Second was the bathroom fan was loose from the wall by about four inches.
+I have stayed in places I would not have even mentioned these two items, but I hold the Quality Inn to a higher standard … AND after reading reviews of when they used to occupy the Motel 6 building next door, this location does seem to have it’s issues. I don’t have the dates but it looks like this motel used to be the Baymont and the the Quality Inn used to be where the Motel 6 is now, this move may have just happened this spring, 2013.
+I’m not advising people not...My co-worker and I had been on opposite ends of the Motel 6 next door and both found bugs in our bed when we finally turned in for the night. So after checking out there I was not wanting to go too far so I just walked across the parking lots and checked in at the Quality Inn.This place past my basic walk through and I did get a good nights sleep. The front desk was pleasant both check in and check out. Did find two minor issues. First one of the wall lights didn’t work … because the outlet it is supposed to plug into is being used by the microwave and fridge. (This looks like a ‘set-up’ issue that should have been taken care of when the appliances were added.) Second was the bathroom fan was loose from the wall by about four inches.I have stayed in places I would not have even mentioned these two items, but I hold the Quality Inn to a higher standard … AND after reading reviews of when they used to occupy the Motel 6 building next door, this location does seem to have it’s issues. I don’t have the dates but it looks like this motel used to be the Baymont and the the Quality Inn used to be where the Motel 6 is now, this move may have just happened this spring, 2013.I’m not advising people not to stop here, just make sure you check things out when you get your room. These were not issues that would make me stay elsewhere, but others have different standards.Do wish I wouldn’t have had to leave so early, besides the basic breakfast, they had scrambled eggs and bacon … but I had to run.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My co-worker and I had been on opposite ends of the Motel 6 next door and both found bugs in our bed when we finally turned in for the night. So after checking out there I was not wanting to go too far so I just walked across the parking lots and checked in at the Quality Inn.
+This place past my basic walk through and I did get a good nights sleep. The front desk was pleasant both check in and check out. 
+Did find two minor issues. First one of the wall lights didn’t work … because the outlet it is supposed to plug into is being used by the microwave and fridge. (This looks like a ‘set-up’ issue that should have been taken care of when the appliances were added.) Second was the bathroom fan was loose from the wall by about four inches.
+I have stayed in places I would not have even mentioned these two items, but I hold the Quality Inn to a higher standard … AND after reading reviews of when they used to occupy the Motel 6 building next door, this location does seem to have it’s issues. I don’t have the dates but it looks like this motel used to be the Baymont and the the Quality Inn used to be where the Motel 6 is now, this move may have just happened this spring, 2013.
+I’m not advising people not...My co-worker and I had been on opposite ends of the Motel 6 next door and both found bugs in our bed when we finally turned in for the night. So after checking out there I was not wanting to go too far so I just walked across the parking lots and checked in at the Quality Inn.This place past my basic walk through and I did get a good nights sleep. The front desk was pleasant both check in and check out. Did find two minor issues. First one of the wall lights didn’t work … because the outlet it is supposed to plug into is being used by the microwave and fridge. (This looks like a ‘set-up’ issue that should have been taken care of when the appliances were added.) Second was the bathroom fan was loose from the wall by about four inches.I have stayed in places I would not have even mentioned these two items, but I hold the Quality Inn to a higher standard … AND after reading reviews of when they used to occupy the Motel 6 building next door, this location does seem to have it’s issues. I don’t have the dates but it looks like this motel used to be the Baymont and the the Quality Inn used to be where the Motel 6 is now, this move may have just happened this spring, 2013.I’m not advising people not to stop here, just make sure you check things out when you get your room. These were not issues that would make me stay elsewhere, but others have different standards.Do wish I wouldn’t have had to leave so early, besides the basic breakfast, they had scrambled eggs and bacon … but I had to run.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r155404970-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155404970</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Fantastic &amp; Low Price</t>
+  </si>
+  <si>
+    <t>We stayed here a week on a business trip and I am still in shock at what a fabulous hotel this is considering the very low price.  The rooms are large, clean and new.  All the service staff from the shuttle driver to the front desk to the cleaning and breakfast staff are very friendly and helpful.  Yes and did I say that they even have a free shuttle from the airport? Amazing!The breakfast is also pretty good. I had the DIY waffles one day and Toast with all the trimmings the next day and cereal the following day.  You have to stay here to believe it.  Best price for sure and best service.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We stayed here a week on a business trip and I am still in shock at what a fabulous hotel this is considering the very low price.  The rooms are large, clean and new.  All the service staff from the shuttle driver to the front desk to the cleaning and breakfast staff are very friendly and helpful.  Yes and did I say that they even have a free shuttle from the airport? Amazing!The breakfast is also pretty good. I had the DIY waffles one day and Toast with all the trimmings the next day and cereal the following day.  You have to stay here to believe it.  Best price for sure and best service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r146657516-Econo_Lodge-Houston_Texas.html</t>
   </si>
   <si>
@@ -430,7 +638,40 @@
     <t>11/06/2012</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r143215971-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143215971</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Houston Expo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was clean and affordable.  The location was appopriate for my needs.  The internet speed was OK but not outstanding </t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r141022655-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141022655</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Top Rate for Great Value</t>
+  </si>
+  <si>
+    <t>The room was clean and very quiet at night.  I especially like all the amenities this hotel offers in the rooms.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r134221151-Econo_Lodge-Houston_Texas.html</t>
@@ -488,6 +729,42 @@
   </si>
   <si>
     <t>i stayed here recently since we had a meeting not too far away from the hotel and i decided to stay here. The hotel looks massive from the parking lot and is visible from the highway, a big plus for me since it takes away lost time that i spend driving in a u-turn around the frontage roads. The beds were well-made, very comfty and the smell of freshness just emitted from the room. The staff was very kind to meeting my every need, the stuff that you missed when packing they have it at the front desk. Breakfast was better than i expected, eggs, sausage, home made waffles that are in a shape of texas, yogurt, a large variety of cereal, fruit, and all the other things youd expect from a continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r111020350-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111020350</t>
+  </si>
+  <si>
+    <t>06/01/2011</t>
+  </si>
+  <si>
+    <t>NOT THE BEST....</t>
+  </si>
+  <si>
+    <t>We initially had reservations at the Quality Inn that had great reviews (Im all about reviews).. Needless to say it was AWFUL!! It looked like a 1960 motel.. Very Dirty looking.. B/C we dont like having to drive around houston without a specific destination we saw a very nice looking hotel call the Baymont Inn and Suites. We walked in to see a very nice looking hotel. We were properly greeted and given our rooms for a memorial day discount. We went to our hotel room and it was superficially nice looking.. The beds are actually comfy but the bathrooms are very grimey looking with old mold in the corners, the vent is sooo full of dust that its just sad, the cabinets looked like they had been wiped off with a very dirty rag leaving a layer of a slimey substance. The walls throughout the hotel room are very dirty! Could be wiped after each guest.. After coming back from a long day at the aquarium and childrens museum, we wanted to take a dip in the pool with our girls.. We went to the pool and it was DISGUSTING.... We had the OWNER have someone clean it. Maintenence then got a brush and proceeded to just brush the grime around turning the pool GREEN and then went about their other buisness! We were very disappointed with that.. over all I would say it was good for the price...We initially had reservations at the Quality Inn that had great reviews (Im all about reviews).. Needless to say it was AWFUL!! It looked like a 1960 motel.. Very Dirty looking.. B/C we dont like having to drive around houston without a specific destination we saw a very nice looking hotel call the Baymont Inn and Suites. We walked in to see a very nice looking hotel. We were properly greeted and given our rooms for a memorial day discount. We went to our hotel room and it was superficially nice looking.. The beds are actually comfy but the bathrooms are very grimey looking with old mold in the corners, the vent is sooo full of dust that its just sad, the cabinets looked like they had been wiped off with a very dirty rag leaving a layer of a slimey substance. The walls throughout the hotel room are very dirty! Could be wiped after each guest.. After coming back from a long day at the aquarium and childrens museum, we wanted to take a dip in the pool with our girls.. We went to the pool and it was DISGUSTING.... We had the OWNER have someone clean it. Maintenence then got a brush and proceeded to just brush the grime around turning the pool GREEN and then went about their other buisness! We were very disappointed with that.. over all I would say it was good for the price but things can absolutely be improved!! thanks for reading my review..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We initially had reservations at the Quality Inn that had great reviews (Im all about reviews).. Needless to say it was AWFUL!! It looked like a 1960 motel.. Very Dirty looking.. B/C we dont like having to drive around houston without a specific destination we saw a very nice looking hotel call the Baymont Inn and Suites. We walked in to see a very nice looking hotel. We were properly greeted and given our rooms for a memorial day discount. We went to our hotel room and it was superficially nice looking.. The beds are actually comfy but the bathrooms are very grimey looking with old mold in the corners, the vent is sooo full of dust that its just sad, the cabinets looked like they had been wiped off with a very dirty rag leaving a layer of a slimey substance. The walls throughout the hotel room are very dirty! Could be wiped after each guest.. After coming back from a long day at the aquarium and childrens museum, we wanted to take a dip in the pool with our girls.. We went to the pool and it was DISGUSTING.... We had the OWNER have someone clean it. Maintenence then got a brush and proceeded to just brush the grime around turning the pool GREEN and then went about their other buisness! We were very disappointed with that.. over all I would say it was good for the price...We initially had reservations at the Quality Inn that had great reviews (Im all about reviews).. Needless to say it was AWFUL!! It looked like a 1960 motel.. Very Dirty looking.. B/C we dont like having to drive around houston without a specific destination we saw a very nice looking hotel call the Baymont Inn and Suites. We walked in to see a very nice looking hotel. We were properly greeted and given our rooms for a memorial day discount. We went to our hotel room and it was superficially nice looking.. The beds are actually comfy but the bathrooms are very grimey looking with old mold in the corners, the vent is sooo full of dust that its just sad, the cabinets looked like they had been wiped off with a very dirty rag leaving a layer of a slimey substance. The walls throughout the hotel room are very dirty! Could be wiped after each guest.. After coming back from a long day at the aquarium and childrens museum, we wanted to take a dip in the pool with our girls.. We went to the pool and it was DISGUSTING.... We had the OWNER have someone clean it. Maintenence then got a brush and proceeded to just brush the grime around turning the pool GREEN and then went about their other buisness! We were very disappointed with that.. over all I would say it was good for the price but things can absolutely be improved!! thanks for reading my review..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r106357291-Econo_Lodge-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>106357291</t>
+  </si>
+  <si>
+    <t>05/01/2011</t>
+  </si>
+  <si>
+    <t>Lipstick on a pig</t>
+  </si>
+  <si>
+    <t>I booked this hotel based on price and decent reviews. The first room they put us in the ac did not work. Second room was better but sheets were not clean. The pool was very dirty as I had to use the pool net myself to get the layer of grime off of the water. Overall bad experience as we did not even stay the night. They at least did not charge me.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d98955-r89046615-Econo_Lodge-Houston_Texas.html</t>
@@ -1081,8 +1358,12 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1095,7 +1376,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1111,7 +1392,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1120,43 +1401,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1195,12 +1472,8 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1213,7 +1486,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1229,7 +1502,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1238,39 +1511,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1286,7 +1563,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1295,25 +1572,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1327,7 +1604,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1343,7 +1620,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1352,39 +1629,45 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1400,7 +1683,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1409,32 +1692,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
+      <c r="R8" t="n">
         <v>3</v>
       </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>2</v>
@@ -1445,7 +1728,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1461,7 +1744,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1470,45 +1753,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1524,7 +1801,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1533,25 +1810,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1565,7 +1842,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1581,7 +1858,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1590,43 +1867,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>110</v>
       </c>
-      <c r="K11" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>106</v>
-      </c>
       <c r="O11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1642,7 +1915,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1651,34 +1924,34 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
         <v>115</v>
       </c>
-      <c r="J12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
-      </c>
       <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>3</v>
@@ -1689,7 +1962,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1705,7 +1978,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1714,37 +1987,35 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1752,7 +2023,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1768,7 +2039,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1777,39 +2048,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
         <v>125</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>126</v>
       </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
         <v>127</v>
       </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>128</v>
-      </c>
-      <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1817,7 +2084,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1833,7 +2100,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1842,44 +2109,46 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
         <v>131</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>132</v>
       </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>128</v>
-      </c>
-      <c r="O15" t="s">
-        <v>59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1894,7 +2163,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1903,44 +2172,40 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1955,7 +2220,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1964,37 +2229,35 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2002,7 +2265,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2018,7 +2281,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2027,41 +2290,37 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2069,7 +2328,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
@@ -2085,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2094,37 +2353,35 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2132,7 +2389,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
@@ -2148,7 +2405,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2157,41 +2414,37 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>161</v>
-      </c>
-      <c r="O20" t="s">
-        <v>136</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2199,7 +2452,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
@@ -2215,7 +2468,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2224,41 +2477,37 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>167</v>
-      </c>
-      <c r="O21" t="s">
-        <v>93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2266,7 +2515,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -2282,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2291,31 +2540,31 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
         <v>5</v>
@@ -2333,7 +2582,915 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>127</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>127</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" t="s">
+        <v>226</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O34" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O35" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17163</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" t="s">
+        <v>256</v>
+      </c>
+      <c r="K36" t="s">
+        <v>257</v>
+      </c>
+      <c r="L36" t="s">
+        <v>258</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>259</v>
+      </c>
+      <c r="O36" t="s">
+        <v>127</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
